--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_244__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_244__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5423,13 +5423,13 @@
                   <c:v>94.17262268066406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.43519592285156</c:v>
+                  <c:v>97.4351806640625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.95090866088867</c:v>
+                  <c:v>55.95090103149414</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.51823616027832</c:v>
+                  <c:v>31.51823806762695</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>51.7954216003418</c:v>
@@ -5450,7 +5450,7 @@
                   <c:v>50.65126037597656</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.45310974121094</c:v>
+                  <c:v>97.453125</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>90.26754760742188</c:v>
@@ -5486,7 +5486,7 @@
                   <c:v>58.4963264465332</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>89.74534606933594</c:v>
+                  <c:v>89.745361328125</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>97.02803039550781</c:v>
@@ -5498,46 +5498,46 @@
                   <c:v>89.489013671875</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>97.41404724121094</c:v>
+                  <c:v>97.41403198242188</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>65.90377807617188</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>97.99296569824219</c:v>
+                  <c:v>97.99295043945312</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53.48729705810547</c:v>
+                  <c:v>53.4872932434082</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>80.35440063476562</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>97.21385192871094</c:v>
+                  <c:v>97.21383666992188</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>85.08448791503906</c:v>
+                  <c:v>85.08450317382812</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>84.21086120605469</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>39.16669082641602</c:v>
+                  <c:v>39.16669464111328</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89.48861694335938</c:v>
+                  <c:v>89.48863220214844</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>97.27769470214844</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>58.51615905761719</c:v>
+                  <c:v>58.51614379882812</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>94.08541870117188</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>37.69792175292969</c:v>
+                  <c:v>37.69792938232422</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>86.92826843261719</c:v>
@@ -5555,13 +5555,13 @@
                   <c:v>96.11952209472656</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>83.58818054199219</c:v>
+                  <c:v>83.58816528320312</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>97.28416442871094</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>97.47212219238281</c:v>
+                  <c:v>97.47213745117188</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>83.44209289550781</c:v>
@@ -5570,22 +5570,22 @@
                   <c:v>85.90266418457031</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>97.47341918945312</c:v>
+                  <c:v>97.47340393066406</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>74.83453369140625</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>89.6103515625</c:v>
+                  <c:v>89.61036682128906</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>56.67463684082031</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>95.45204162597656</c:v>
+                  <c:v>95.4520263671875</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>78.91415405273438</c:v>
+                  <c:v>78.91416931152344</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>51.42776870727539</c:v>
@@ -5612,7 +5612,7 @@
                   <c:v>86.71597290039062</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>95.4351806640625</c:v>
+                  <c:v>95.43516540527344</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>89.01762390136719</c:v>
@@ -5621,7 +5621,7 @@
                   <c:v>97.38288879394531</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>62.239990234375</c:v>
+                  <c:v>62.23999786376953</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>81.77601623535156</c:v>
@@ -5630,16 +5630,16 @@
                   <c:v>67.73054504394531</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>82.48690795898438</c:v>
+                  <c:v>82.48692321777344</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>98.05113220214844</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>97.7769775390625</c:v>
+                  <c:v>97.77699279785156</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>27.49498748779297</c:v>
+                  <c:v>27.4949836730957</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>66.33969879150391</c:v>
@@ -5651,16 +5651,16 @@
                   <c:v>59.4866943359375</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>82.32577514648438</c:v>
+                  <c:v>82.32579040527344</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>63.67641448974609</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>52.41769409179688</c:v>
+                  <c:v>52.41769027709961</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>97.84039306640625</c:v>
+                  <c:v>97.84037780761719</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>97.84434509277344</c:v>
@@ -6443,7 +6443,7 @@
         <v>97.01439999999999</v>
       </c>
       <c r="F4">
-        <v>97.43519592285156</v>
+        <v>97.4351806640625</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6475,7 +6475,7 @@
         <v>56.1604</v>
       </c>
       <c r="F5">
-        <v>55.95090866088867</v>
+        <v>55.95090103149414</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6507,7 +6507,7 @@
         <v>19.1716</v>
       </c>
       <c r="F6">
-        <v>31.51823616027832</v>
+        <v>31.51823806762695</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>97.3323</v>
       </c>
       <c r="F13">
-        <v>97.45310974121094</v>
+        <v>97.453125</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6911,7 +6911,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F25">
-        <v>89.74534606933594</v>
+        <v>89.745361328125</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>97.328</v>
       </c>
       <c r="F29">
-        <v>97.41404724121094</v>
+        <v>97.41403198242188</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>97.9363</v>
       </c>
       <c r="F31">
-        <v>97.99296569824219</v>
+        <v>97.99295043945312</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>53.6367</v>
       </c>
       <c r="F32">
-        <v>53.48729705810547</v>
+        <v>53.4872932434082</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>97.2676</v>
       </c>
       <c r="F34">
-        <v>97.21385192871094</v>
+        <v>97.21383666992188</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>86.1662</v>
       </c>
       <c r="F35">
-        <v>85.08448791503906</v>
+        <v>85.08450317382812</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>38.4808</v>
       </c>
       <c r="F37">
-        <v>39.16669082641602</v>
+        <v>39.16669464111328</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F38">
-        <v>89.48861694335938</v>
+        <v>89.48863220214844</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>58.3298</v>
       </c>
       <c r="F40">
-        <v>58.51615905761719</v>
+        <v>58.51614379882812</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>38.6711</v>
       </c>
       <c r="F42">
-        <v>37.69792175292969</v>
+        <v>37.69792938232422</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>82.63800000000001</v>
       </c>
       <c r="F48">
-        <v>83.58818054199219</v>
+        <v>83.58816528320312</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>97.4067</v>
       </c>
       <c r="F50">
-        <v>97.47212219238281</v>
+        <v>97.47213745117188</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>97.3824</v>
       </c>
       <c r="F53">
-        <v>97.47341918945312</v>
+        <v>97.47340393066406</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>89.41589999999999</v>
       </c>
       <c r="F55">
-        <v>89.6103515625</v>
+        <v>89.61036682128906</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>95.4624</v>
       </c>
       <c r="F57">
-        <v>95.45204162597656</v>
+        <v>95.4520263671875</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>79.8115</v>
       </c>
       <c r="F58">
-        <v>78.91415405273438</v>
+        <v>78.91416931152344</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>95.8539</v>
       </c>
       <c r="F67">
-        <v>95.4351806640625</v>
+        <v>95.43516540527344</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>62.6537</v>
       </c>
       <c r="F70">
-        <v>62.239990234375</v>
+        <v>62.23999786376953</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>82.6225</v>
       </c>
       <c r="F73">
-        <v>82.48690795898438</v>
+        <v>82.48692321777344</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>97.50060000000001</v>
       </c>
       <c r="F75">
-        <v>97.7769775390625</v>
+        <v>97.77699279785156</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>28.0807</v>
       </c>
       <c r="F76">
-        <v>27.49498748779297</v>
+        <v>27.4949836730957</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>81.8498</v>
       </c>
       <c r="F80">
-        <v>82.32577514648438</v>
+        <v>82.32579040527344</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.9032</v>
       </c>
       <c r="F82">
-        <v>52.41769409179688</v>
+        <v>52.41769027709961</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>97.51990000000001</v>
       </c>
       <c r="F83">
-        <v>97.84039306640625</v>
+        <v>97.84037780761719</v>
       </c>
     </row>
     <row r="84" spans="1:6">
